--- a/LocalData/skill_team.xlsx
+++ b/LocalData/skill_team.xlsx
@@ -105,9 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三段劈</t>
-  </si>
-  <si>
     <t>包含技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,37 +123,44 @@
     <t>1103</t>
   </si>
   <si>
+    <t>[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001^1002^1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧斩击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>巨斧旋风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳劈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001^1002^1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续攻击，挥砍三次，力量逐渐增强。\n&lt;color=#51c2ec&gt;野蛮血液：&lt;/color&gt;暴走状态，三段劈变为强力击；\n&lt;color=#51c2ec&gt;强力击：&lt;/color&gt;对前方范围造成巨额伤害并击退；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥动手中巨斧，对附近敌人造成伤害，持续&lt;color=#2cd855&gt;5&lt;/color&gt;秒。\n&lt;color=#51c2ec&gt;风刃：&lt;/color&gt;暴走状态巨斧飞舞范围更大。</t>
-  </si>
-  <si>
-    <t>猛力跳向目标，并大力劈砍，造成巨额伤害并眩晕对手。\n&lt;color=#51c2ec&gt;冲锋：&lt;/color&gt;暴走状态跳劈变成冲锋，对目标进行冲锋并对沿途敌人造成伤害和击退，冲锋目标造成眩晕；</t>
-  </si>
-  <si>
-    <t>激活蛮荒血液，技能不再冷却并获得&lt;color=#2cd855&gt;50%&lt;/color&gt;移动速度和&lt;color=#2cd855&gt;30%&lt;/color&gt;伤害加成，持续&lt;color=#2cd855&gt;8&lt;/color&gt;秒。\n&lt;color=#51c2ec&gt;虚弱：&lt;/color&gt;暴走结束后，移动下降&lt;color=#2cd855&gt;60%&lt;/color&gt;，防御下降&lt;color=#2cd855&gt;30%&lt;/color&gt;；</t>
+    <t>虎灵狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥动手中巨斧，对附近敌人造成伤害，持续&lt;color=#2cd855&gt;5&lt;/color&gt;秒。\n\n&lt;color=#51c2ec&gt;风刃：&lt;/color&gt;暴走状态巨斧飞舞范围更大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活蛮荒血液，技能不再冷却并获得&lt;color=#2cd855&gt;50%&lt;/color&gt;移动速度和&lt;color=#2cd855&gt;30%&lt;/color&gt;伤害加成，持续&lt;color=#2cd855&gt;8&lt;/color&gt;秒。\n\n&lt;color=#51c2ec&gt;虚弱：&lt;/color&gt;暴走结束后，移动下降&lt;color=#2cd855&gt;60%&lt;/color&gt;，防御下降&lt;color=#2cd855&gt;30%&lt;/color&gt;；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续攻击，挥砍三次，力量逐渐增强。\n\n&lt;color=#51c2ec&gt;野蛮血液：&lt;/color&gt;暴走状态下，攻击转为强力击；\n\n&lt;color=#51c2ec&gt;强力击：&lt;/color&gt;对前方范围造成巨额伤害并击退；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶猛跃击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛力跳向目标，并大力劈砍，造成巨额伤害并眩晕对手。\n\n&lt;color=#51c2ec&gt;凶猛冲锋：&lt;/color&gt;狂暴时跃击转为冲锋，对沿途敌人造成伤害和击退，目标区载敌人眩晕；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,7 +541,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -603,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -622,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -632,16 +636,16 @@
         <v>110001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -649,16 +653,16 @@
         <v>110002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -666,16 +670,16 @@
         <v>110003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -683,16 +687,16 @@
         <v>110004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
